--- a/dragon-verse/Excels/NPCAction_NPC动作表.xlsx
+++ b/dragon-verse/Excels/NPCAction_NPC动作表.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author xml:space="preserve"> </author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0">
@@ -31,34 +38,30 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">1</t>
+          <t>1</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：</t>
+          <t>：</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">npc</t>
+          <t>npc</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">单人动作
@@ -68,34 +71,30 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">2</t>
+          <t>2</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：</t>
+          <t>：</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">npc</t>
+          <t>npc</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">单人姿态
@@ -105,34 +104,30 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">3</t>
+          <t>3</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：</t>
+          <t>：</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">npc</t>
+          <t>npc</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">双人动作
@@ -142,37 +137,33 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">4</t>
+          <t>4</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">：</t>
+          <t>：</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">npc</t>
+          <t>npc</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">双人姿态</t>
+          <t>双人姿态</t>
         </r>
       </text>
     </comment>
@@ -182,28 +173,25 @@
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">普通动作相对于发起者正前方的距离，取配置</t>
+          <t>普通动作相对于发起者正前方的距离，取配置</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Z</t>
+          <t>Z</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">坐标。
+          <t>坐标。
 交互动作相对于发起者的脸部的偏移。</t>
         </r>
       </text>
@@ -215,77 +203,75 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
-    <t xml:space="preserve">int</t>
+    <t>int</t>
   </si>
   <si>
-    <t xml:space="preserve">string</t>
+    <t>string</t>
   </si>
   <si>
-    <t xml:space="preserve">vector3</t>
+    <t>vector3</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean</t>
+    <t>boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">float</t>
+    <t>float</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">icon</t>
+    <t>icon</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
+    <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">actionGuid</t>
+    <t>actionGuid</t>
   </si>
   <si>
-    <t xml:space="preserve">posOffset</t>
+    <t>posOffset</t>
   </si>
   <si>
-    <t xml:space="preserve">rotation</t>
+    <t>rotation</t>
   </si>
   <si>
-    <t xml:space="preserve">sendStance</t>
+    <t>sendStance</t>
   </si>
   <si>
-    <t xml:space="preserve">accectStance</t>
+    <t>accectStance</t>
   </si>
   <si>
-    <t xml:space="preserve">circulate</t>
+    <t>circulate</t>
   </si>
   <si>
-    <t xml:space="preserve">time</t>
+    <t>time</t>
   </si>
   <si>
-    <t xml:space="preserve">talk</t>
+    <t>talk</t>
   </si>
   <si>
-    <t xml:space="preserve">identity</t>
+    <t>identity</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">动作</t>
+      <t>动作</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">icon</t>
+      <t>icon</t>
     </r>
   </si>
   <si>
@@ -293,7 +279,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">动作类型
@@ -303,34 +288,30 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">npc</t>
+      <t>npc</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单人动作
@@ -340,34 +321,30 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">npc</t>
+      <t>npc</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单人姿态
@@ -377,34 +354,30 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">npc</t>
+      <t>npc</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">双人动作
@@ -414,37 +387,33 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">：</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">npc</t>
+      <t>npc</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">双人姿态</t>
+      <t>双人姿态</t>
     </r>
   </si>
   <si>
@@ -452,150 +421,288 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">动作、姿态</t>
+      <t>动作、姿态</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">guid</t>
+      <t>guid</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">接收者位置偏移</t>
+    <t>接收者位置偏移</t>
   </si>
   <si>
-    <t xml:space="preserve">接收者旋转偏移</t>
+    <t>接收者旋转偏移</t>
   </si>
   <si>
-    <t xml:space="preserve">发起者动作、姿态</t>
+    <t>发起者动作、姿态</t>
   </si>
   <si>
-    <t xml:space="preserve">接收者动作、姿态</t>
+    <t>接收者动作、姿态</t>
   </si>
   <si>
-    <t xml:space="preserve">是否循环</t>
+    <t>是否循环</t>
   </si>
   <si>
-    <t xml:space="preserve">动作时间</t>
+    <t>动作时间</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">npc</t>
+      <t>npc</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">气泡语</t>
+      <t>气泡语</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">动作名称</t>
+    <t>动作名称</t>
   </si>
   <si>
-    <t xml:space="preserve">Language</t>
+    <t>Language</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|40</t>
+    <t>0|0|40</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|180</t>
+    <t>0|0|180</t>
   </si>
   <si>
-    <t xml:space="preserve">0|100|0</t>
+    <t>0|100|0</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0</t>
+    <t>0|0|0</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|150</t>
+    <t>0|0|150</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|100</t>
+    <t>0|0|100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,189 +733,1080 @@
         <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF6F9D4"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD4EA6B"/>
-      <rgbColor rgb="FFE8F2A1"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00F6F9D4"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00D4EA6B"/>
+      <rgbColor rgb="00E8F2A1"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:ALY33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9416666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.19"/>
+    <col min="3" max="4" width="15.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.0416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.1916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -884,7 +1882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="80.25" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,62 +1895,62 @@
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="18.65" customHeight="1" spans="12:15">
       <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>132593</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="n">
+    <row r="5" spans="1:1013">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>324582</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>14552</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>1</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="1">
         <v>102162</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>102129</v>
       </c>
       <c r="M5" s="6"/>
@@ -1957,601 +2955,601 @@
       <c r="ALX5" s="6"/>
       <c r="ALY5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>132561</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="B6" s="5">
+        <v>324608</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>14741</v>
       </c>
-      <c r="I6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <v>102163</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>102130</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>132580</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="B7" s="5">
+        <v>324584</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>29733</v>
       </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>102164</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>102131</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>132560</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="n">
+      <c r="B8" s="5">
+        <v>324589</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>122813</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>102165</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>102132</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>132559</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="B9" s="5">
+        <v>324600</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>123405</v>
       </c>
-      <c r="I9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>102166</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>102133</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>132585</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="B10" s="5">
+        <v>324599</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>124500</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>102167</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="1">
         <v>102134</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>132556</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="n">
+      <c r="B11" s="5">
+        <v>324595</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>125813</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>102168</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="1">
         <v>102135</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>132590</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="n">
+      <c r="B12" s="5">
+        <v>324603</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>124622</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="I12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="n">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>102169</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="1">
         <v>102136</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>132591</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="n">
+      <c r="B13" s="8">
+        <v>324588</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <v>122676</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="I13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>102170</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="1">
         <v>102137</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>132568</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="B14" s="1">
+        <v>324586</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>123712</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="I14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="n">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>102171</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="1">
         <v>102138</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10">
         <v>132583</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
         <v>122240</v>
       </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>102172</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>102139</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>132584</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="n">
+      <c r="B16" s="1">
+        <v>324583</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
         <v>123720</v>
       </c>
-      <c r="I16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="n">
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>102173</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="1">
         <v>102140</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>132554</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="n">
+      <c r="B17" s="1">
+        <v>324602</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>123714</v>
       </c>
-      <c r="I17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="n">
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
         <v>102174</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="1">
         <v>102141</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="1">
         <v>132607</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="n">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>129503</v>
       </c>
-      <c r="I18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
         <v>102175</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="1">
         <v>102142</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="1">
         <v>132569</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="n">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>129505</v>
       </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
         <v>102176</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="1">
         <v>102143</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="1">
         <v>34419</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="n">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>14641</v>
       </c>
-      <c r="I20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="n">
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>102177</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>102144</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="1">
         <v>35629</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>15057</v>
       </c>
-      <c r="I21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="n">
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
         <v>102178</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" s="1">
         <v>102145</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="1">
         <v>35628</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="n">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>14617</v>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="n">
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
         <v>102179</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="1">
         <v>102146</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="1">
         <v>35630</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>14759</v>
       </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="n">
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
         <v>102180</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L23" s="1">
         <v>102147</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="1">
         <v>34431</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>14771</v>
       </c>
-      <c r="I24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="n">
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
         <v>102181</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="1">
         <v>102148</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="1">
         <v>35632</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>14766</v>
       </c>
-      <c r="I25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="n">
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
         <v>102182</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="L25" s="1">
         <v>102149</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="1">
         <v>34426</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <v>15078</v>
       </c>
-      <c r="I26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="n">
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
         <v>102183</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" s="1">
         <v>102150</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="1">
         <v>34417</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="n">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>14504</v>
       </c>
-      <c r="I27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
         <v>102184</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="L27" s="1">
         <v>102151</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="1">
         <v>34430</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>14655</v>
       </c>
-      <c r="I28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="n">
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
         <v>102185</v>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="L28" s="1">
         <v>102152</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="1">
         <v>34420</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2560,35 +3558,35 @@
       <c r="F29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>14703</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>14765</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="n">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
         <v>102186</v>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="L29" s="1">
         <v>102153</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>137647</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2597,35 +3595,35 @@
       <c r="F30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="12">
         <v>124192</v>
       </c>
-      <c r="H30" s="11" t="n">
+      <c r="H30" s="12">
         <v>124194</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>8</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="1">
         <v>102187</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="L30" s="1">
         <v>102154</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>137650</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2634,35 +3632,35 @@
       <c r="F31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="G31" s="13">
         <v>84920</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="13">
         <v>84920</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>3</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="1">
         <v>102188</v>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="L31" s="1">
         <v>102155</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>137656</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2671,35 +3669,35 @@
       <c r="F32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="13" t="n">
+      <c r="G32" s="14">
         <v>125813</v>
       </c>
-      <c r="H32" s="13" t="n">
+      <c r="H32" s="14">
         <v>125813</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="1">
         <v>102189</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="L32" s="1">
         <v>102156</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>137656</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2708,35 +3706,31 @@
       <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33">
         <v>135368</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>135370</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>3.37</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="K33" s="1">
         <v>102190</v>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="L33" s="1">
         <v>102157</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/NPCAction_NPC动作表.xlsx
+++ b/dragon-verse/Excels/NPCAction_NPC动作表.xlsx
@@ -1796,7 +1796,7 @@
   <dimension ref="A1:ALY33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9416666666667" defaultRowHeight="16.5"/>
@@ -3272,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>132607</v>
+        <v>324757</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>132569</v>
+        <v>324754</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>34419</v>
+        <v>324751</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -3347,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>35629</v>
+        <v>324755</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>35628</v>
+        <v>324758</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -3397,7 +3397,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>35630</v>
+        <v>324761</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>34431</v>
+        <v>324753</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>35632</v>
+        <v>324759</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>34426</v>
+        <v>324756</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>34417</v>
+        <v>324760</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>34430</v>
+        <v>324752</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
